--- a/設計書/06利用者情報変更・削除.xlsx
+++ b/設計書/06利用者情報変更・削除.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55488BBF-0875-43E5-9F3F-C1790667E459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{95718628-47A6-4834-AA0E-F18C238F7B6B}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{76708D28-300F-4988-9C38-CAE73B4A1A1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -3126,7 +3125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3371,8 +3370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="935368" y="10265042"/>
-          <a:ext cx="10086976" cy="7588208"/>
+          <a:off x="935368" y="9577881"/>
+          <a:ext cx="10073369" cy="6944137"/>
           <a:chOff x="1457078" y="17364569"/>
           <a:chExt cx="10066875" cy="6530810"/>
         </a:xfrm>
@@ -3737,8 +3736,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1251796" y="35854016"/>
-          <a:ext cx="10034394" cy="6050540"/>
+          <a:off x="1251796" y="33050945"/>
+          <a:ext cx="10020787" cy="5513057"/>
           <a:chOff x="13547704" y="12944536"/>
           <a:chExt cx="9926404" cy="6480277"/>
         </a:xfrm>
@@ -3903,8 +3902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1532351" y="45191796"/>
-          <a:ext cx="9776042" cy="6191579"/>
+          <a:off x="1532351" y="41556421"/>
+          <a:ext cx="9762435" cy="5654097"/>
           <a:chOff x="13566322" y="23292955"/>
           <a:chExt cx="9629952" cy="6233390"/>
         </a:xfrm>
@@ -4119,8 +4118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1984047" y="1194026"/>
-          <a:ext cx="8835674" cy="6470934"/>
+          <a:off x="1981779" y="1103312"/>
+          <a:ext cx="8824335" cy="6058184"/>
           <a:chOff x="2436484" y="966107"/>
           <a:chExt cx="8816624" cy="5760641"/>
         </a:xfrm>
@@ -5285,8 +5284,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1153206" y="24493537"/>
-          <a:ext cx="9962469" cy="7305100"/>
+          <a:off x="1153206" y="22638430"/>
+          <a:ext cx="9948862" cy="6742671"/>
           <a:chOff x="13321393" y="990599"/>
           <a:chExt cx="9824357" cy="7550028"/>
         </a:xfrm>
@@ -5551,8 +5550,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2041071" y="18369641"/>
-          <a:ext cx="9054193" cy="5576293"/>
+          <a:off x="2038803" y="16993052"/>
+          <a:ext cx="9042854" cy="5113650"/>
           <a:chOff x="1700893" y="27091820"/>
           <a:chExt cx="8871857" cy="5796729"/>
         </a:xfrm>
@@ -6087,7 +6086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6095,120 +6094,120 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>
     </row>
   </sheetData>
@@ -6218,49 +6217,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O168"/>
   <sheetViews>
     <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A163" sqref="A163"/>
     </sheetView>
-    <sheetView topLeftCell="B40" zoomScale="40" zoomScaleNormal="40" workbookViewId="1">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
@@ -6271,7 +6268,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
@@ -6294,7 +6291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="4">
         <v>1</v>
       </c>
@@ -6317,7 +6314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="4">
         <v>2</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="4">
         <v>3</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="4">
         <v>4</v>
       </c>
@@ -6386,7 +6383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="4">
         <v>5</v>
       </c>
@@ -6409,7 +6406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="4">
         <v>6</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="4">
         <v>7</v>
       </c>
@@ -6455,7 +6452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="4">
         <v>8</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="4">
         <v>9</v>
       </c>
@@ -6501,7 +6498,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="4">
         <v>10</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="4">
         <v>11</v>
       </c>
@@ -6547,7 +6544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="4">
         <v>12</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="4">
         <v>13</v>
       </c>
@@ -6593,7 +6590,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="4">
         <v>14</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="4">
         <v>15</v>
       </c>
@@ -6639,7 +6636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="4">
         <v>16</v>
       </c>
@@ -6662,7 +6659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="4">
         <v>17</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="4">
         <v>18</v>
       </c>
@@ -6708,7 +6705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="4">
         <v>19</v>
       </c>
@@ -6731,7 +6728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="4">
         <v>20</v>
       </c>
@@ -6754,7 +6751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="4">
         <v>21</v>
       </c>
@@ -6777,7 +6774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="4">
         <v>22</v>
       </c>
@@ -6800,12 +6797,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="4" t="s">
         <v>4</v>
       </c>
@@ -6828,7 +6825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="4">
         <v>1</v>
       </c>
@@ -6851,7 +6848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="4">
         <v>2</v>
       </c>
@@ -6874,7 +6871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="4">
         <v>3</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="4">
         <v>4</v>
       </c>
@@ -6920,7 +6917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="4">
         <v>5</v>
       </c>
@@ -6943,7 +6940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="4">
         <v>6</v>
       </c>
@@ -6966,12 +6963,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="4" t="s">
         <v>4</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" s="4">
         <v>1</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="4">
         <v>2</v>
       </c>
@@ -7040,7 +7037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="4">
         <v>3</v>
       </c>
@@ -7063,12 +7060,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I86" s="4" t="s">
         <v>3</v>
       </c>
@@ -7079,7 +7076,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I87" s="4" t="s">
         <v>4</v>
       </c>
@@ -7102,7 +7099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="4" t="s">
         <v>253</v>
       </c>
@@ -7125,7 +7122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I89" s="4">
         <v>23</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I90" s="4">
         <v>24</v>
       </c>
@@ -7171,7 +7168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I91" s="4">
         <v>25</v>
       </c>
@@ -7194,7 +7191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I92" s="4">
         <v>26</v>
       </c>
@@ -7217,12 +7214,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I128" s="4" t="s">
         <v>4</v>
       </c>
@@ -7245,7 +7242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="9:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="129" spans="9:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I129" s="4">
         <v>1</v>
       </c>
@@ -7268,7 +7265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I130" s="4">
         <v>2</v>
       </c>
@@ -7291,12 +7288,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I165" s="4" t="s">
         <v>4</v>
       </c>
@@ -7319,7 +7316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I166" s="4">
         <v>1</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I167" s="4">
         <v>2</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I168" s="4">
         <v>3</v>
       </c>
@@ -7397,17 +7394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7420,32 +7417,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08203125" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -7457,7 +7452,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7473,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>261</v>
       </c>
@@ -7499,7 +7494,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>262</v>
       </c>
@@ -7521,7 +7516,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>263</v>
       </c>
@@ -7543,7 +7538,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
         <v>264</v>
       </c>
@@ -7564,7 +7559,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>265</v>
       </c>
@@ -7585,7 +7580,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>266</v>
       </c>
@@ -7606,7 +7601,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>267</v>
       </c>
@@ -7627,7 +7622,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>268</v>
       </c>
@@ -7647,7 +7642,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>240</v>
       </c>
@@ -7667,7 +7662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>238</v>
       </c>
@@ -7687,7 +7682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>239</v>
       </c>
@@ -7707,7 +7702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>269</v>
       </c>
@@ -7727,7 +7722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>270</v>
       </c>
@@ -7747,7 +7742,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>271</v>
       </c>
@@ -7767,7 +7762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>280</v>
       </c>
@@ -7787,7 +7782,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>183</v>
       </c>
@@ -7807,7 +7802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
         <v>187</v>
       </c>
@@ -7827,7 +7822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>295</v>
       </c>
@@ -7847,7 +7842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
         <v>296</v>
       </c>
@@ -7867,7 +7862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>297</v>
       </c>
@@ -7887,7 +7882,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>289</v>
       </c>
@@ -7907,7 +7902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
         <v>290</v>
       </c>
@@ -7934,25 +7929,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7960,7 +7953,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7974,7 +7967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7988,7 +7981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8002,7 +7995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8016,7 +8009,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8030,7 +8023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8044,7 +8037,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8058,7 +8051,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8072,7 +8065,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -8086,7 +8079,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8107,7 +8100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8115,21 +8108,21 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8140,7 +8133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8151,7 +8144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8162,7 +8155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8173,7 +8166,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8184,7 +8177,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8195,7 +8188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8206,7 +8199,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8217,7 +8210,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -8228,7 +8221,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8239,7 +8232,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -8250,7 +8243,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8268,7 +8261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8276,17 +8269,17 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
@@ -8299,7 +8292,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -8322,7 +8315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -8345,7 +8338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -8366,7 +8359,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -8389,7 +8382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -8410,7 +8403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -8433,7 +8426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -8454,7 +8447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -8477,7 +8470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -8498,7 +8491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>240</v>
       </c>
@@ -8521,7 +8514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>238</v>
       </c>
@@ -8542,7 +8535,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -8565,7 +8558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
         <v>269</v>
       </c>
@@ -8588,7 +8581,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>178</v>
       </c>
@@ -8609,7 +8602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>183</v>
       </c>
@@ -8630,7 +8623,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>187</v>
       </c>
@@ -8651,7 +8644,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>272</v>
       </c>
@@ -8672,7 +8665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>289</v>
       </c>
@@ -8695,7 +8688,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>290</v>
       </c>
@@ -8715,7 +8708,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>291</v>
       </c>
@@ -8735,7 +8728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>292</v>
       </c>
@@ -8755,7 +8748,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>293</v>
       </c>
@@ -8775,7 +8768,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>328</v>
       </c>
@@ -8803,32 +8796,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8857,7 +8850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8886,7 +8879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8915,7 +8908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8944,7 +8937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>

--- a/設計書/06利用者情報変更・削除.xlsx
+++ b/設計書/06利用者情報変更・削除.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="7"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -21,8 +20,9 @@
     <sheet name="メッセージ一覧" sheetId="7" r:id="rId6"/>
     <sheet name="入出力仕様一覧" sheetId="8" r:id="rId7"/>
     <sheet name="SQL一覧" sheetId="9" r:id="rId8"/>
+    <sheet name="変更履歴" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="349">
   <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
@@ -1616,11 +1616,6 @@
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリーダイヤルを除いた国内の一般的な電話番号
-^0\d{9,10}$</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3121,12 +3116,79 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加場所</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック使用一覧</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルC5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーダイヤルを除いた国内の一般的な電話番号
+^0\d{[9],10}$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前：int　10　Y
+変更後：varchar　11</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウマエ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3150,8 +3212,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3164,8 +3234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -3256,13 +3332,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3323,6 +3700,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3370,8 +3864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="935368" y="9577881"/>
-          <a:ext cx="10073369" cy="6944137"/>
+          <a:off x="935368" y="9643649"/>
+          <a:ext cx="10064298" cy="7052994"/>
           <a:chOff x="1457078" y="17364569"/>
           <a:chExt cx="10066875" cy="6530810"/>
         </a:xfrm>
@@ -3736,8 +4230,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1251796" y="33050945"/>
-          <a:ext cx="10020787" cy="5513057"/>
+          <a:off x="1251796" y="33450088"/>
+          <a:ext cx="10011716" cy="5619646"/>
           <a:chOff x="13547704" y="12944536"/>
           <a:chExt cx="9926404" cy="6480277"/>
         </a:xfrm>
@@ -3902,8 +4396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1532351" y="41556421"/>
-          <a:ext cx="9762435" cy="5654097"/>
+          <a:off x="1532351" y="42121117"/>
+          <a:ext cx="9753364" cy="5751615"/>
           <a:chOff x="13566322" y="23292955"/>
           <a:chExt cx="9629952" cy="6233390"/>
         </a:xfrm>
@@ -4118,8 +4612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1981779" y="1103312"/>
-          <a:ext cx="8824335" cy="6058184"/>
+          <a:off x="1984047" y="1121455"/>
+          <a:ext cx="8812996" cy="6089934"/>
           <a:chOff x="2436484" y="966107"/>
           <a:chExt cx="8816624" cy="5760641"/>
         </a:xfrm>
@@ -5284,8 +5778,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1153206" y="22638430"/>
-          <a:ext cx="9948862" cy="6742671"/>
+          <a:off x="1153206" y="22887894"/>
+          <a:ext cx="9939791" cy="6815243"/>
           <a:chOff x="13321393" y="990599"/>
           <a:chExt cx="9824357" cy="7550028"/>
         </a:xfrm>
@@ -5550,8 +6044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2038803" y="16993052"/>
-          <a:ext cx="9042854" cy="5113650"/>
+          <a:off x="2041071" y="17176748"/>
+          <a:ext cx="9031515" cy="5186222"/>
           <a:chOff x="1700893" y="27091820"/>
           <a:chExt cx="8871857" cy="5796729"/>
         </a:xfrm>
@@ -6089,10 +6583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6110,7 +6603,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6120,7 +6613,7 @@
     </row>
     <row r="6" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6198,7 +6691,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6220,10 +6713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6437,7 +6929,7 @@
         <v>93</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>46</v>
@@ -6483,7 +6975,7 @@
         <v>94</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>46</v>
@@ -6667,7 +7159,7 @@
         <v>96</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>46</v>
@@ -6713,10 +7205,10 @@
         <v>97</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>80</v>
@@ -6779,10 +7271,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>46</v>
@@ -6965,7 +7457,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -6996,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>136</v>
@@ -7101,7 +7593,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>79</v>
@@ -7216,7 +7708,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7250,7 +7742,7 @@
         <v>141</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>11</v>
@@ -7273,7 +7765,7 @@
         <v>142</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>11</v>
@@ -7400,7 +7892,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -7421,10 +7912,9 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7475,28 +7965,28 @@
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>158</v>
@@ -7518,7 +8008,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>159</v>
@@ -7540,7 +8030,7 @@
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>160</v>
@@ -7561,7 +8051,7 @@
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>161</v>
@@ -7582,7 +8072,7 @@
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>162</v>
@@ -7591,7 +8081,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>78</v>
@@ -7603,7 +8093,7 @@
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>163</v>
@@ -7612,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>146</v>
@@ -7624,7 +8114,7 @@
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>164</v>
@@ -7633,7 +8123,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>82</v>
@@ -7644,7 +8134,7 @@
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>165</v>
@@ -7653,7 +8143,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>149</v>
@@ -7664,7 +8154,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>166</v>
@@ -7684,10 +8174,10 @@
     </row>
     <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>154</v>
@@ -7696,7 +8186,7 @@
         <v>155</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>156</v>
@@ -7704,7 +8194,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>157</v>
@@ -7724,7 +8214,7 @@
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>179</v>
@@ -7733,7 +8223,7 @@
         <v>172</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>173</v>
@@ -7744,7 +8234,7 @@
     </row>
     <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>179</v>
@@ -7756,7 +8246,7 @@
         <v>176</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>130</v>
@@ -7764,19 +8254,19 @@
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>174</v>
@@ -7807,13 +8297,13 @@
         <v>187</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>46</v>
@@ -7824,16 +8314,16 @@
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>48</v>
@@ -7844,19 +8334,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>130</v>
@@ -7864,16 +8354,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>48</v>
@@ -7884,7 +8374,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>184</v>
@@ -7904,10 +8394,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>188</v>
@@ -7933,9 +8423,8 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7975,7 +8464,7 @@
         <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -7989,7 +8478,7 @@
         <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -8003,10 +8492,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -8017,10 +8506,10 @@
         <v>194</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8028,13 +8517,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8042,13 +8531,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8056,13 +8545,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8070,13 +8559,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8084,18 +8573,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8103,10 +8593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8160,10 +8649,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8171,10 +8660,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8185,7 +8674,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8196,7 +8685,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8204,10 +8693,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8215,10 +8704,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8226,10 +8715,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8237,10 +8726,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8248,10 +8737,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -8267,7 +8756,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8320,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -8347,16 +8835,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8364,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -8391,10 +8879,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>147</v>
@@ -8408,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -8417,7 +8905,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -8435,16 +8923,16 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8452,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -8467,7 +8955,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8479,10 +8967,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>153</v>
@@ -8493,16 +8981,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>149</v>
@@ -8516,40 +9004,40 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>174</v>
@@ -8560,7 +9048,7 @@
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>172</v>
@@ -8572,13 +9060,13 @@
         <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8587,13 +9075,13 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>130</v>
@@ -8611,16 +9099,16 @@
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8632,34 +9120,34 @@
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>46</v>
@@ -8667,10 +9155,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>34</v>
@@ -8679,18 +9167,18 @@
         <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -8699,18 +9187,18 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>35</v>
@@ -8719,7 +9207,7 @@
         <v>130</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>130</v>
@@ -8730,63 +9218,63 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -8799,10 +9287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8861,7 +9348,7 @@
         <v>174</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>46</v>
@@ -8887,7 +9374,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>48</v>
@@ -8913,16 +9400,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>48</v>
@@ -8942,13 +9429,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -8970,4 +9457,229 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="20"/>
+    <col min="7" max="7" width="8.6640625" style="21"/>
+    <col min="9" max="9" width="8.6640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="43">
+        <v>45398</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="44"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="J3:P6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:P10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設計書/06利用者情報変更・削除.xlsx
+++ b/設計書/06利用者情報変更・削除.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="346">
   <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
@@ -1452,10 +1452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録内容確認画面⑤を押下</t>
     <rPh sb="0" eb="8">
       <t>トウロクナイヨウカクニンガメン</t>
@@ -1619,20 +1615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日本国内の一般的な郵便番号
-^\d{7}$</t>
-    <rPh sb="0" eb="4">
-      <t>ニホンコクナイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ一覧No3参照</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1650,19 +1632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号重複確認</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ一覧No4参照</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1754,26 +1723,6 @@
     <t>チェック仕様一覧No5</t>
     <rPh sb="4" eb="8">
       <t>シヨウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用できない電話番号です。</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ一覧No7参照</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1882,32 +1831,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者マスタに入力された電話番号が存在しないか確認</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック仕様一覧No7</t>
-    <rPh sb="4" eb="8">
-      <t>シヨウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エスケープシーケンス以外</t>
     <rPh sb="10" eb="12">
       <t>イガイ</t>
@@ -2026,13 +1949,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メッセージ一覧No7</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面入力情報取得</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -2262,31 +2178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「編集（もしくは削除）が完了しました。図書カード番号は以下です。」と表示。</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トショ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用者情報ターミナルへ遷移</t>
     <rPh sb="0" eb="5">
       <t>リヨウシャジョウホウ</t>
@@ -2381,10 +2272,6 @@
   </si>
   <si>
     <t>13-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2625,18 +2512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーに応じたエラー文を表示</t>
     <rPh sb="4" eb="5">
       <t>オウ</t>
@@ -2846,9 +2721,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OUT</t>
-  </si>
-  <si>
     <t>初期画面㉖</t>
     <rPh sb="0" eb="4">
       <t>ショキガメン</t>
@@ -2870,39 +2742,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者マスタにおける入力された電話番号のカウント件数が
-1件以上の場合：No13
-0件の場合：No14</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了画面を表示</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -2916,27 +2755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新処理を実行</t>
-    <rPh sb="0" eb="4">
-      <t>コウシンショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用者登録情報が</t>
-    <rPh sb="0" eb="7">
-      <t>リヨウシャトウロクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面での入力値</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -3012,14 +2830,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了画面を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No17,18</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3072,13 +2882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メッセージ一覧No10</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ一覧No11</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -3164,24 +2967,156 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セルC5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリーダイヤルを除いた国内の一般的な電話番号
-^0\d{[9],10}$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更前：int　10　Y
-変更後：varchar　11</t>
+    <t>変更前：フリーダイヤルを除いた国内の一般的な電話番号
+^0\d{[9],10}$
+変更後：フリーダイヤルを除いた国内の一般的な電話番号
+!/^(0120|010|020|030|040|050|060)/ || !/^\d+$/ || /^\d{9}$/</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウマエ</t>
     </rPh>
-    <rPh sb="14" eb="17">
+    <rPh sb="42" eb="45">
       <t>ヘンコウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後：フリーダイヤルを除いた国内の一般的な電話番号
+!/^(0120|010|020|030|040|050|060)/ || !/^\d+$/ || /^\d{9}$/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本国内の一般的な郵便番号
+^\d{7}$ || !/^\d+$/</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンコクナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック使用一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルC5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルC6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前：日本国内の一般的な郵便番号
+^\d{7}$
+変更後：日本国内の一般的な郵便番号
+^\d{7}$ || !/^\d+$/</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウマエ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号重複確認の処理を削除</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※今回は実装しない</t>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「本当に削除しますか？」と表示</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除処理を実行するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集（もしくは削除）が完了しました。」と表示。</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -3241,7 +3176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3504,50 +3439,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3563,6 +3474,99 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3575,9 +3579,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3588,9 +3590,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3601,9 +3601,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3612,9 +3610,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3625,9 +3621,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3639,7 +3633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3685,18 +3679,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3714,51 +3696,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3817,6 +3754,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3839,15 +3875,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>935368</xdr:colOff>
+      <xdr:colOff>980725</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>100506</xdr:rowOff>
+      <xdr:rowOff>209364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1293237</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>123143</xdr:rowOff>
+      <xdr:colOff>1338594</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>5215</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3864,9 +3900,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="935368" y="9643649"/>
+          <a:off x="980725" y="9752507"/>
           <a:ext cx="10064298" cy="7052994"/>
-          <a:chOff x="1457078" y="17364569"/>
+          <a:chOff x="1502447" y="17465367"/>
           <a:chExt cx="10066875" cy="6530810"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -3891,7 +3927,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1457078" y="17364569"/>
+            <a:off x="1502447" y="17465367"/>
             <a:ext cx="10066875" cy="6530810"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4212,8 +4248,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1557083</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>35377</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44448</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4230,7 +4266,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1251796" y="33450088"/>
+          <a:off x="1251796" y="32996516"/>
           <a:ext cx="10011716" cy="5619646"/>
           <a:chOff x="13547704" y="12944536"/>
           <a:chExt cx="9926404" cy="6480277"/>
@@ -4396,7 +4432,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1532351" y="42121117"/>
+          <a:off x="1532351" y="41431689"/>
           <a:ext cx="9753364" cy="5751615"/>
           <a:chOff x="13566322" y="23292955"/>
           <a:chExt cx="9629952" cy="6233390"/>
@@ -5761,7 +5797,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1386568</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>202851</xdr:rowOff>
+      <xdr:rowOff>202852</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5778,7 +5814,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1153206" y="22887894"/>
+          <a:off x="1153206" y="22434323"/>
           <a:ext cx="9939791" cy="6815243"/>
           <a:chOff x="13321393" y="990599"/>
           <a:chExt cx="9824357" cy="7550028"/>
@@ -6019,15 +6055,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>149677</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1366157</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>119827</xdr:rowOff>
+      <xdr:colOff>930729</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>219612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6044,7 +6080,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2041071" y="17176748"/>
+          <a:off x="1605643" y="17276533"/>
           <a:ext cx="9031515" cy="5186222"/>
           <a:chOff x="1700893" y="27091820"/>
           <a:chExt cx="8871857" cy="5796729"/>
@@ -6230,6 +6266,64 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>743857</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9225643" y="37029571"/>
+          <a:ext cx="816429" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6603,7 +6697,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6613,7 +6707,7 @@
     </row>
     <row r="6" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6691,7 +6785,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -6713,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6929,7 +7023,7 @@
         <v>93</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>46</v>
@@ -6975,7 +7069,7 @@
         <v>94</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>46</v>
@@ -7159,7 +7253,7 @@
         <v>96</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>46</v>
@@ -7205,10 +7299,10 @@
         <v>97</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>80</v>
@@ -7271,10 +7365,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>46</v>
@@ -7455,100 +7549,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I63" s="4" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O63" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="I64" s="4">
+    <row r="68" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="4">
         <v>1</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L64" s="4" t="s">
+      <c r="J68" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O64" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I65" s="4">
+    <row r="69" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="4">
         <v>2</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L65" s="4" t="s">
+      <c r="J69" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="M69" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O65" s="4" t="s">
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="I66" s="4">
-        <v>3</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L66" s="4" t="s">
+      <c r="M70" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" s="4" t="s">
+      <c r="O70" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7593,7 +7687,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>79</v>
@@ -7708,7 +7802,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7734,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="9:15" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I129" s="4">
         <v>1</v>
       </c>
@@ -7742,7 +7836,7 @@
         <v>141</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>11</v>
@@ -7765,7 +7859,7 @@
         <v>142</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>11</v>
@@ -7889,7 +7983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -7912,7 +8006,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -7965,28 +8059,28 @@
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>158</v>
@@ -8008,7 +8102,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>159</v>
@@ -8030,13 +8124,13 @@
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
@@ -8045,19 +8139,19 @@
         <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>46</v>
@@ -8066,13 +8160,13 @@
         <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>162</v>
@@ -8081,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>78</v>
@@ -8093,7 +8187,7 @@
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>163</v>
@@ -8102,7 +8196,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>146</v>
@@ -8114,7 +8208,7 @@
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>164</v>
@@ -8123,7 +8217,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>82</v>
@@ -8134,7 +8228,7 @@
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>165</v>
@@ -8143,7 +8237,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>149</v>
@@ -8154,7 +8248,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>166</v>
@@ -8174,10 +8268,10 @@
     </row>
     <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>154</v>
@@ -8186,7 +8280,7 @@
         <v>155</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>156</v>
@@ -8194,7 +8288,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>157</v>
@@ -8214,16 +8308,16 @@
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>173</v>
@@ -8234,10 +8328,10 @@
     </row>
     <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>175</v>
@@ -8246,7 +8340,7 @@
         <v>176</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>130</v>
@@ -8254,19 +8348,19 @@
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>174</v>
@@ -8274,16 +8368,16 @@
     </row>
     <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>46</v>
@@ -8294,16 +8388,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>46</v>
@@ -8314,16 +8408,16 @@
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>48</v>
@@ -8334,19 +8428,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>130</v>
@@ -8354,16 +8448,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>48</v>
@@ -8374,16 +8468,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>46</v>
@@ -8394,16 +8488,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>46</v>
@@ -8420,21 +8514,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.25" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -8442,7 +8536,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8456,35 +8550,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8492,94 +8586,83 @@
         <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>290</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -8591,10 +8674,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8604,14 +8687,14 @@
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8622,7 +8705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8633,7 +8716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8644,29 +8727,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8674,10 +8757,10 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8685,62 +8768,54 @@
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8751,10 +8826,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8808,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>78</v>
@@ -8835,16 +8910,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8852,7 +8927,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -8879,10 +8954,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>147</v>
@@ -8896,16 +8971,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -8923,16 +8998,16 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8940,13 +9015,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>82</v>
@@ -8955,7 +9030,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8967,10 +9042,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>153</v>
@@ -8981,16 +9056,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>149</v>
@@ -9004,40 +9079,40 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>174</v>
@@ -9046,235 +9121,128 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="2" t="s">
-        <v>311</v>
+        <v>341</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>234</v>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>335</v>
+      <c r="D17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>174</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>345</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -9348,7 +9316,7 @@
         <v>174</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>46</v>
@@ -9374,7 +9342,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>48</v>
@@ -9400,16 +9368,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>48</v>
@@ -9429,13 +9397,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -9461,126 +9429,127 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P11"/>
+  <dimension ref="C1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="20"/>
-    <col min="7" max="7" width="8.6640625" style="21"/>
-    <col min="9" max="9" width="8.6640625" style="20"/>
+    <col min="4" max="4" width="8.6640625" style="16"/>
+    <col min="7" max="7" width="8.6640625" style="17"/>
+    <col min="9" max="9" width="8.6640625" style="16"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="43">
+      <c r="C3" s="24">
         <v>45398</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="44"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="40"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="40"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="44"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -9589,14 +9558,14 @@
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -9605,79 +9574,210 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
+      <c r="C9" s="44">
+        <v>45400</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="53"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="53"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="53"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="40"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="44">
+        <v>45400</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="40"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:F14"/>
+    <mergeCell ref="H9:I14"/>
+    <mergeCell ref="J9:P14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="J15:P16"/>
+    <mergeCell ref="J17:P18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:P2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="J3:P6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="J3:P8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
